--- a/exported data/delta_obs_dat.xlsx
+++ b/exported data/delta_obs_dat.xlsx
@@ -939,7 +939,7 @@
         <v>163324</v>
       </c>
       <c r="D23">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E23">
         <v>117599.4613083602</v>
@@ -1167,7 +1167,7 @@
         <v>561.8461538461538</v>
       </c>
       <c r="E32">
-        <v>121972.8567536033</v>
+        <v>121972.8567536032</v>
       </c>
       <c r="F32">
         <v>40789.29709255059</v>
@@ -1292,10 +1292,10 @@
         <v>22</v>
       </c>
       <c r="E37">
-        <v>22147.86764992112</v>
+        <v>22147.86764992111</v>
       </c>
       <c r="F37">
-        <v>15043.13235007888</v>
+        <v>15043.13235007889</v>
       </c>
       <c r="G37">
         <v>7</v>
@@ -1320,7 +1320,7 @@
         <v>22288.90128644563</v>
       </c>
       <c r="F38">
-        <v>14823.1756366313</v>
+        <v>14823.17563663129</v>
       </c>
       <c r="G38">
         <v>14</v>
@@ -1467,7 +1467,7 @@
         <v>191.8461538461538</v>
       </c>
       <c r="E44">
-        <v>23119.81378983789</v>
+        <v>23119.81378983788</v>
       </c>
       <c r="F44">
         <v>13901.34005631596</v>
@@ -1492,7 +1492,7 @@
         <v>201.8461538461538</v>
       </c>
       <c r="E45">
-        <v>23301.84697706358</v>
+        <v>23301.84697706357</v>
       </c>
       <c r="F45">
         <v>13709.30686909027</v>
@@ -1770,7 +1770,7 @@
         <v>25692.22509970806</v>
       </c>
       <c r="F56">
-        <v>10922.92874644579</v>
+        <v>10922.92874644578</v>
       </c>
       <c r="G56">
         <v>112</v>
@@ -2092,10 +2092,10 @@
         <v>12</v>
       </c>
       <c r="E69">
-        <v>6779.28817726164</v>
+        <v>6779.288177261639</v>
       </c>
       <c r="F69">
-        <v>4216.71182273836</v>
+        <v>4216.711822738361</v>
       </c>
       <c r="G69">
         <v>14</v>
@@ -2120,7 +2120,7 @@
         <v>6823.839465601965</v>
       </c>
       <c r="F70">
-        <v>4182.160534398036</v>
+        <v>4182.160534398035</v>
       </c>
       <c r="G70">
         <v>21</v>
@@ -2770,7 +2770,7 @@
         <v>15514.06243880734</v>
       </c>
       <c r="F96">
-        <v>9082.091407346507</v>
+        <v>9082.091407346506</v>
       </c>
       <c r="G96">
         <v>70</v>
@@ -2817,7 +2817,7 @@
         <v>206</v>
       </c>
       <c r="E98">
-        <v>16116.5498075871</v>
+        <v>16116.54980758709</v>
       </c>
       <c r="F98">
         <v>8579.450192412905</v>
@@ -3070,7 +3070,7 @@
         <v>17776.03415035427</v>
       </c>
       <c r="F108">
-        <v>7023.965849645731</v>
+        <v>7023.96584964573</v>
       </c>
       <c r="G108">
         <v>154</v>
@@ -3117,7 +3117,7 @@
         <v>106</v>
       </c>
       <c r="E110">
-        <v>17912.29174750413</v>
+        <v>17912.29174750412</v>
       </c>
       <c r="F110">
         <v>6883.708252495875</v>
@@ -3220,7 +3220,7 @@
         <v>16341.26324739119</v>
       </c>
       <c r="F114">
-        <v>10513.73675260882</v>
+        <v>10513.73675260881</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>17315.15971620426</v>
       </c>
       <c r="F123">
-        <v>9371.840283795737</v>
+        <v>9371.840283795736</v>
       </c>
       <c r="G123">
         <v>63</v>
@@ -4117,7 +4117,7 @@
         <v>224.9230769230769</v>
       </c>
       <c r="E150">
-        <v>12022.25123862988</v>
+        <v>12022.25123862987</v>
       </c>
       <c r="F150">
         <v>5258.825684447047</v>
@@ -4292,7 +4292,7 @@
         <v>36</v>
       </c>
       <c r="E157">
-        <v>12660.53829631012</v>
+        <v>12660.53829631011</v>
       </c>
       <c r="F157">
         <v>4809.461703689885</v>
@@ -4470,7 +4470,7 @@
         <v>29935.76129558262</v>
       </c>
       <c r="F164">
-        <v>17206.23870441739</v>
+        <v>17206.23870441738</v>
       </c>
       <c r="G164">
         <v>21</v>
@@ -4620,7 +4620,7 @@
         <v>30846.10089265847</v>
       </c>
       <c r="F170">
-        <v>16062.05295349538</v>
+        <v>16062.05295349537</v>
       </c>
       <c r="G170">
         <v>56</v>
@@ -4742,7 +4742,7 @@
         <v>307.6923076923077</v>
       </c>
       <c r="E175">
-        <v>31908.04081264333</v>
+        <v>31908.04081264332</v>
       </c>
       <c r="F175">
         <v>14952.26687966437</v>
@@ -4842,7 +4842,7 @@
         <v>153.8461538461538</v>
       </c>
       <c r="E179">
-        <v>33246.89673681239</v>
+        <v>33246.89673681238</v>
       </c>
       <c r="F179">
         <v>13767.25710934146</v>
@@ -4970,7 +4970,7 @@
         <v>34387.18890509663</v>
       </c>
       <c r="F184">
-        <v>12347.8880179803</v>
+        <v>12347.88801798029</v>
       </c>
       <c r="G184">
         <v>119</v>
@@ -5020,7 +5020,7 @@
         <v>34878.31195390962</v>
       </c>
       <c r="F186">
-        <v>12061.68804609039</v>
+        <v>12061.68804609038</v>
       </c>
       <c r="G186">
         <v>133</v>
@@ -5095,7 +5095,7 @@
         <v>35185.31193534636</v>
       </c>
       <c r="F189">
-        <v>11872.68806465365</v>
+        <v>11872.68806465364</v>
       </c>
       <c r="G189">
         <v>154</v>
@@ -5817,7 +5817,7 @@
         <v>153.8461538461538</v>
       </c>
       <c r="E218">
-        <v>18824.76110070518</v>
+        <v>18824.76110070517</v>
       </c>
       <c r="F218">
         <v>14428.39274544867</v>
@@ -5939,7 +5939,7 @@
         <v>33407</v>
       </c>
       <c r="D223">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E223">
         <v>19931.56195818107</v>
@@ -5967,7 +5967,7 @@
         <v>521.6923076923076</v>
       </c>
       <c r="E224">
-        <v>20250.12136023355</v>
+        <v>20250.12136023354</v>
       </c>
       <c r="F224">
         <v>12635.18633207415</v>
@@ -6092,7 +6092,7 @@
         <v>653.8461538461538</v>
       </c>
       <c r="E229">
-        <v>22142.22067722921</v>
+        <v>22142.2206772292</v>
       </c>
       <c r="F229">
         <v>10610.93316892464</v>
@@ -6267,7 +6267,7 @@
         <v>90</v>
       </c>
       <c r="E236">
-        <v>23916.3632810869</v>
+        <v>23916.36328108689</v>
       </c>
       <c r="F236">
         <v>9400.636718913105</v>
@@ -6367,7 +6367,7 @@
         <v>18</v>
       </c>
       <c r="E240">
-        <v>24142.63960694345</v>
+        <v>24142.63960694344</v>
       </c>
       <c r="F240">
         <v>9246.360393056555</v>
@@ -6767,7 +6767,7 @@
         <v>1426.769230769231</v>
       </c>
       <c r="E256">
-        <v>90242.82590352075</v>
+        <v>90242.82590352074</v>
       </c>
       <c r="F256">
         <v>40145.40486571002</v>
@@ -7242,7 +7242,7 @@
         <v>296</v>
       </c>
       <c r="E275">
-        <v>98405.07275937031</v>
+        <v>98405.0727593703</v>
       </c>
       <c r="F275">
         <v>33113.9272406297</v>
@@ -7292,7 +7292,7 @@
         <v>288</v>
       </c>
       <c r="E277">
-        <v>98628.80943946976</v>
+        <v>98628.80943946975</v>
       </c>
       <c r="F277">
         <v>32898.19056053025</v>
@@ -7370,7 +7370,7 @@
         <v>164387.3389514313</v>
       </c>
       <c r="F280">
-        <v>92134.96874087642</v>
+        <v>92134.96874087641</v>
       </c>
       <c r="G280">
         <v>14</v>
@@ -7792,7 +7792,7 @@
         <v>307.6923076923077</v>
       </c>
       <c r="E297">
-        <v>177474.2494227277</v>
+        <v>177474.2494227276</v>
       </c>
       <c r="F297">
         <v>79104.05826958004</v>
@@ -8292,10 +8292,10 @@
         <v>128.9230769230769</v>
       </c>
       <c r="E317">
-        <v>52608.6173664728</v>
+        <v>52608.61736647279</v>
       </c>
       <c r="F317">
-        <v>37230.45955660412</v>
+        <v>37230.45955660413</v>
       </c>
       <c r="G317">
         <v>14</v>
@@ -8414,7 +8414,7 @@
         <v>89968</v>
       </c>
       <c r="D322">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E322">
         <v>53908.93310040355</v>
@@ -8567,7 +8567,7 @@
         <v>153.8461538461538</v>
       </c>
       <c r="E328">
-        <v>55988.78376287269</v>
+        <v>55988.78376287268</v>
       </c>
       <c r="F328">
         <v>33825.37008328116</v>
@@ -9192,10 +9192,10 @@
         <v>142</v>
       </c>
       <c r="E353">
-        <v>122197.7559922119</v>
+        <v>122197.7559922118</v>
       </c>
       <c r="F353">
-        <v>84275.24400778815</v>
+        <v>84275.24400778818</v>
       </c>
       <c r="G353">
         <v>3</v>
@@ -9395,7 +9395,7 @@
         <v>126814.8192710807</v>
       </c>
       <c r="F361">
-        <v>79415.56534430391</v>
+        <v>79415.5653443039</v>
       </c>
       <c r="G361">
         <v>35</v>
@@ -9445,7 +9445,7 @@
         <v>128158.7058090345</v>
       </c>
       <c r="F363">
-        <v>78148.60188327315</v>
+        <v>78148.60188327318</v>
       </c>
       <c r="G363">
         <v>42</v>
@@ -10195,7 +10195,7 @@
         <v>50617.63709456748</v>
       </c>
       <c r="F393">
-        <v>31092.51675158637</v>
+        <v>31092.51675158636</v>
       </c>
       <c r="G393">
         <v>28</v>
@@ -10417,7 +10417,7 @@
         <v>230.7692307692308</v>
       </c>
       <c r="E402">
-        <v>53605.75341195976</v>
+        <v>53605.75341195975</v>
       </c>
       <c r="F402">
         <v>28047.47735727101</v>
@@ -10542,7 +10542,7 @@
         <v>230.7692307692308</v>
       </c>
       <c r="E407">
-        <v>55692.12750572209</v>
+        <v>55692.12750572208</v>
       </c>
       <c r="F407">
         <v>25961.10326350868</v>
@@ -10820,7 +10820,7 @@
         <v>59097.16810245796</v>
       </c>
       <c r="F418">
-        <v>22632.98574369589</v>
+        <v>22632.98574369588</v>
       </c>
       <c r="G418">
         <v>137</v>
@@ -11242,10 +11242,10 @@
         <v>52</v>
       </c>
       <c r="E435">
-        <v>4901.219488214362</v>
+        <v>4901.21948821436</v>
       </c>
       <c r="F435">
-        <v>5597.780511785638</v>
+        <v>5597.78051178564</v>
       </c>
       <c r="G435">
         <v>77</v>
@@ -11395,7 +11395,7 @@
         <v>5274.05273288526</v>
       </c>
       <c r="F441">
-        <v>5180.947267114741</v>
+        <v>5180.94726711474</v>
       </c>
       <c r="G441">
         <v>119</v>
@@ -11920,7 +11920,7 @@
         <v>41004.45671531475</v>
       </c>
       <c r="F462">
-        <v>27424.77405391602</v>
+        <v>27424.77405391601</v>
       </c>
       <c r="G462">
         <v>56</v>
@@ -11967,7 +11967,7 @@
         <v>660.9230769230769</v>
       </c>
       <c r="E464">
-        <v>41732.62888922684</v>
+        <v>41732.62888922683</v>
       </c>
       <c r="F464">
         <v>26676.44803385009</v>
@@ -11992,7 +11992,7 @@
         <v>801.8461538461538</v>
       </c>
       <c r="E465">
-        <v>42323.76424532796</v>
+        <v>42323.76424532795</v>
       </c>
       <c r="F465">
         <v>25944.38960082589</v>
@@ -12067,10 +12067,10 @@
         <v>574</v>
       </c>
       <c r="E468">
-        <v>43366.99271296932</v>
+        <v>43366.99271296931</v>
       </c>
       <c r="F468">
-        <v>25129.00728703068</v>
+        <v>25129.00728703069</v>
       </c>
       <c r="G468">
         <v>84</v>
@@ -12492,7 +12492,7 @@
         <v>12</v>
       </c>
       <c r="E485">
-        <v>12593.12124539125</v>
+        <v>12593.12124539124</v>
       </c>
       <c r="F485">
         <v>10078.87875460876</v>
@@ -12520,7 +12520,7 @@
         <v>12621.17007607117</v>
       </c>
       <c r="F486">
-        <v>9969.906847005756</v>
+        <v>9969.906847005755</v>
       </c>
       <c r="G486">
         <v>28</v>
@@ -12595,7 +12595,7 @@
         <v>12925.92132743368</v>
       </c>
       <c r="F489">
-        <v>9643.155595643239</v>
+        <v>9643.155595643238</v>
       </c>
       <c r="G489">
         <v>49</v>
@@ -12717,7 +12717,7 @@
         <v>196</v>
       </c>
       <c r="E494">
-        <v>13602.22226273763</v>
+        <v>13602.22226273762</v>
       </c>
       <c r="F494">
         <v>8885.777737262375</v>
@@ -12770,7 +12770,7 @@
         <v>13860.3810361072</v>
       </c>
       <c r="F496">
-        <v>8575.618963892805</v>
+        <v>8575.618963892804</v>
       </c>
       <c r="G496">
         <v>98</v>
@@ -13067,7 +13067,7 @@
         <v>96</v>
       </c>
       <c r="E508">
-        <v>100690.6222224195</v>
+        <v>100690.6222224194</v>
       </c>
       <c r="F508">
         <v>56826.37777758055</v>
@@ -13214,7 +13214,7 @@
         <v>157613</v>
       </c>
       <c r="D514">
-        <v>665.5384615384616</v>
+        <v>665.5384615384615</v>
       </c>
       <c r="E514">
         <v>102978.1178308123</v>
@@ -13289,7 +13289,7 @@
         <v>157613</v>
       </c>
       <c r="D517">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E517">
         <v>104560.7033793378</v>
@@ -13364,10 +13364,10 @@
         <v>157613</v>
       </c>
       <c r="D520">
-        <v>1625.384615384616</v>
+        <v>1625.384615384615</v>
       </c>
       <c r="E520">
-        <v>106165.8849349076</v>
+        <v>106165.8849349075</v>
       </c>
       <c r="F520">
         <v>49821.73044970783</v>
@@ -13539,7 +13539,7 @@
         <v>157613</v>
       </c>
       <c r="D527">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E527">
         <v>112844.2987846239</v>
@@ -13589,7 +13589,7 @@
         <v>157613</v>
       </c>
       <c r="D529">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E529">
         <v>114374.3161777927</v>
@@ -14042,7 +14042,7 @@
         <v>14</v>
       </c>
       <c r="E547">
-        <v>43480.08901553376</v>
+        <v>43480.08901553375</v>
       </c>
       <c r="F547">
         <v>27843.91098446625</v>
@@ -14142,10 +14142,10 @@
         <v>250.9230769230769</v>
       </c>
       <c r="E551">
-        <v>44185.21479703011</v>
+        <v>44185.21479703009</v>
       </c>
       <c r="F551">
-        <v>26901.86212604681</v>
+        <v>26901.86212604683</v>
       </c>
       <c r="G551">
         <v>56</v>
@@ -14317,7 +14317,7 @@
         <v>358.9230769230769</v>
       </c>
       <c r="E558">
-        <v>46337.66966990366</v>
+        <v>46337.66966990365</v>
       </c>
       <c r="F558">
         <v>24641.40725317327</v>
@@ -14520,7 +14520,7 @@
         <v>47335.12180975048</v>
       </c>
       <c r="F566">
-        <v>23906.87819024953</v>
+        <v>23906.87819024952</v>
       </c>
       <c r="G566">
         <v>161</v>
@@ -14667,7 +14667,7 @@
         <v>193.8461538461538</v>
       </c>
       <c r="E572">
-        <v>15084.36134810031</v>
+        <v>15084.3613481003</v>
       </c>
       <c r="F572">
         <v>12690.79249805354</v>
@@ -14764,7 +14764,7 @@
         <v>27969</v>
       </c>
       <c r="D576">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E576">
         <v>15790.48546459816</v>
@@ -14792,7 +14792,7 @@
         <v>433.6923076923077</v>
       </c>
       <c r="E577">
-        <v>16116.97668348632</v>
+        <v>16116.97668348631</v>
       </c>
       <c r="F577">
         <v>11418.33100882138</v>
@@ -14917,7 +14917,7 @@
         <v>384.6153846153846</v>
       </c>
       <c r="E582">
-        <v>17407.45738308882</v>
+        <v>17407.45738308881</v>
       </c>
       <c r="F582">
         <v>10176.9272322958</v>
@@ -14995,7 +14995,7 @@
         <v>18117.63563355834</v>
       </c>
       <c r="F585">
-        <v>9234.441289518582</v>
+        <v>9234.441289518581</v>
       </c>
       <c r="G585">
         <v>84</v>
@@ -15142,7 +15142,7 @@
         <v>156</v>
       </c>
       <c r="E591">
-        <v>20017.79267571361</v>
+        <v>20017.7926757136</v>
       </c>
       <c r="F591">
         <v>7795.207324286395</v>
@@ -15195,7 +15195,7 @@
         <v>20226.79604842917</v>
       </c>
       <c r="F593">
-        <v>7660.203951570828</v>
+        <v>7660.203951570827</v>
       </c>
       <c r="G593">
         <v>133</v>
@@ -15470,7 +15470,7 @@
         <v>9483.670023970413</v>
       </c>
       <c r="F604">
-        <v>4431.483822183433</v>
+        <v>4431.483822183432</v>
       </c>
       <c r="G604">
         <v>42</v>
@@ -15742,7 +15742,7 @@
         <v>72</v>
       </c>
       <c r="E615">
-        <v>10673.15758241699</v>
+        <v>10673.15758241698</v>
       </c>
       <c r="F615">
         <v>3351.842417583015</v>
@@ -16320,7 +16320,7 @@
         <v>7253.940158690903</v>
       </c>
       <c r="F638">
-        <v>3488.059841309098</v>
+        <v>3488.059841309097</v>
       </c>
       <c r="G638">
         <v>84</v>
@@ -16370,7 +16370,7 @@
         <v>7564.285771106021</v>
       </c>
       <c r="F640">
-        <v>3167.71422889398</v>
+        <v>3167.714228893979</v>
       </c>
       <c r="G640">
         <v>98</v>
@@ -16989,10 +16989,10 @@
         <v>97282</v>
       </c>
       <c r="D665">
-        <v>1415.384615384616</v>
+        <v>1415.384615384615</v>
       </c>
       <c r="E665">
-        <v>64436.74548692288</v>
+        <v>64436.74548692287</v>
       </c>
       <c r="F665">
         <v>31429.86989769252</v>
@@ -17117,7 +17117,7 @@
         <v>230.7692307692308</v>
       </c>
       <c r="E670">
-        <v>68140.30094351409</v>
+        <v>68140.30094351408</v>
       </c>
       <c r="F670">
         <v>28910.92982571668</v>
@@ -17264,7 +17264,7 @@
         <v>97282</v>
       </c>
       <c r="D676">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E676">
         <v>71358.63245752541</v>
@@ -17645,7 +17645,7 @@
         <v>34086.63683151006</v>
       </c>
       <c r="F691">
-        <v>21927.36316848995</v>
+        <v>21927.36316848994</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -17742,7 +17742,7 @@
         <v>153.8461538461538</v>
       </c>
       <c r="E695">
-        <v>34832.8977945641</v>
+        <v>34832.89779456409</v>
       </c>
       <c r="F695">
         <v>21081.25605158975</v>
@@ -17820,7 +17820,7 @@
         <v>35225.28390512272</v>
       </c>
       <c r="F698">
-        <v>20473.02378718498</v>
+        <v>20473.02378718497</v>
       </c>
       <c r="G698">
         <v>35</v>
@@ -17842,10 +17842,10 @@
         <v>307.6923076923077</v>
       </c>
       <c r="E699">
-        <v>35548.89092660586</v>
+        <v>35548.89092660585</v>
       </c>
       <c r="F699">
-        <v>20211.41676570183</v>
+        <v>20211.41676570184</v>
       </c>
       <c r="G699">
         <v>39</v>
@@ -18767,7 +18767,7 @@
         <v>307.6923076923077</v>
       </c>
       <c r="E736">
-        <v>60350.56013879577</v>
+        <v>60350.56013879576</v>
       </c>
       <c r="F736">
         <v>41832.74755351192</v>
@@ -18967,7 +18967,7 @@
         <v>307.6923076923077</v>
       </c>
       <c r="E744">
-        <v>64595.78673449571</v>
+        <v>64595.7867344957</v>
       </c>
       <c r="F744">
         <v>37587.52095781198</v>
@@ -19120,7 +19120,7 @@
         <v>66653.1849208012</v>
       </c>
       <c r="F750">
-        <v>35473.96892535265</v>
+        <v>35473.96892535264</v>
       </c>
       <c r="G750">
         <v>126</v>
@@ -19245,7 +19245,7 @@
         <v>67350.06399212749</v>
       </c>
       <c r="F755">
-        <v>35028.93600787252</v>
+        <v>35028.93600787251</v>
       </c>
       <c r="G755">
         <v>161</v>
@@ -19295,7 +19295,7 @@
         <v>150569.1465491761</v>
       </c>
       <c r="F757">
-        <v>182061.0842200547</v>
+        <v>182061.0842200546</v>
       </c>
       <c r="G757">
         <v>4</v>
@@ -19414,7 +19414,7 @@
         <v>332861</v>
       </c>
       <c r="D762">
-        <v>905.5384615384616</v>
+        <v>905.5384615384615</v>
       </c>
       <c r="E762">
         <v>155013.9542310546</v>
@@ -19442,7 +19442,7 @@
         <v>307.6923076923077</v>
       </c>
       <c r="E763">
-        <v>156500.2437880694</v>
+        <v>156500.2437880693</v>
       </c>
       <c r="F763">
         <v>176053.0639042383</v>
@@ -19645,7 +19645,7 @@
         <v>167681.0764996882</v>
       </c>
       <c r="F771">
-        <v>164949.1542695426</v>
+        <v>164949.1542695425</v>
       </c>
       <c r="G771">
         <v>53</v>
@@ -19667,7 +19667,7 @@
         <v>2728.615384615385</v>
       </c>
       <c r="E772">
-        <v>167657.8033232472</v>
+        <v>167657.8033232471</v>
       </c>
       <c r="F772">
         <v>162474.5812921375</v>
@@ -19917,10 +19917,10 @@
         <v>2841.846153846154</v>
       </c>
       <c r="E782">
-        <v>183453.8716381185</v>
+        <v>183453.8716381184</v>
       </c>
       <c r="F782">
-        <v>146565.2822080354</v>
+        <v>146565.2822080355</v>
       </c>
       <c r="G782">
         <v>91</v>
@@ -19992,7 +19992,7 @@
         <v>2022</v>
       </c>
       <c r="E785">
-        <v>187676.2492632897</v>
+        <v>187676.2492632896</v>
       </c>
       <c r="F785">
         <v>143162.7507367104</v>
@@ -20295,7 +20295,7 @@
         <v>12297.4663394433</v>
       </c>
       <c r="F797">
-        <v>13982.61058363363</v>
+        <v>13982.61058363362</v>
       </c>
       <c r="G797">
         <v>21</v>
@@ -20467,7 +20467,7 @@
         <v>110</v>
       </c>
       <c r="E804">
-        <v>13073.89906807069</v>
+        <v>13073.89906807068</v>
       </c>
       <c r="F804">
         <v>13179.10093192932</v>
@@ -20870,7 +20870,7 @@
         <v>24528.26651874383</v>
       </c>
       <c r="F820">
-        <v>11661.73348125618</v>
+        <v>11661.73348125617</v>
       </c>
       <c r="G820">
         <v>7</v>
@@ -20895,7 +20895,7 @@
         <v>24702.94126340365</v>
       </c>
       <c r="F821">
-        <v>11495.05873659636</v>
+        <v>11495.05873659635</v>
       </c>
       <c r="G821">
         <v>14</v>
@@ -21217,7 +21217,7 @@
         <v>188</v>
       </c>
       <c r="E834">
-        <v>26995.37581622035</v>
+        <v>26995.37581622034</v>
       </c>
       <c r="F834">
         <v>9038.624183779655</v>
@@ -21467,10 +21467,10 @@
         <v>223.8461538461538</v>
       </c>
       <c r="E844">
-        <v>89559.78353956877</v>
+        <v>89559.78353956874</v>
       </c>
       <c r="F844">
-        <v>75597.37030658507</v>
+        <v>75597.3703065851</v>
       </c>
       <c r="G844">
         <v>14</v>
@@ -21567,7 +21567,7 @@
         <v>153.8461538461538</v>
       </c>
       <c r="E848">
-        <v>91329.96697151644</v>
+        <v>91329.96697151643</v>
       </c>
       <c r="F848">
         <v>73897.18687463741</v>
@@ -21639,7 +21639,7 @@
         <v>165381</v>
       </c>
       <c r="D851">
-        <v>829.5384615384616</v>
+        <v>829.5384615384615</v>
       </c>
       <c r="E851">
         <v>92491.26320471081</v>
@@ -21667,10 +21667,10 @@
         <v>307.6923076923077</v>
       </c>
       <c r="E852">
-        <v>93422.9181437229</v>
+        <v>93422.91814372288</v>
       </c>
       <c r="F852">
-        <v>71650.38954858479</v>
+        <v>71650.3895485848</v>
       </c>
       <c r="G852">
         <v>46</v>
@@ -22270,7 +22270,7 @@
         <v>111139.4581493356</v>
       </c>
       <c r="F876">
-        <v>53803.54185066444</v>
+        <v>53803.54185066443</v>
       </c>
       <c r="G876">
         <v>154</v>
@@ -22442,7 +22442,7 @@
         <v>230.7692307692308</v>
       </c>
       <c r="E883">
-        <v>25747.67135068125</v>
+        <v>25747.67135068124</v>
       </c>
       <c r="F883">
         <v>16278.55941854952</v>
@@ -22545,7 +22545,7 @@
         <v>26522.56271676539</v>
       </c>
       <c r="F887">
-        <v>15657.51420631154</v>
+        <v>15657.51420631153</v>
       </c>
       <c r="G887">
         <v>46</v>
@@ -22670,7 +22670,7 @@
         <v>27538.53061785656</v>
       </c>
       <c r="F892">
-        <v>14348.46938214345</v>
+        <v>14348.46938214344</v>
       </c>
       <c r="G892">
         <v>63</v>
@@ -23120,7 +23120,7 @@
         <v>33681.48640472609</v>
       </c>
       <c r="F910">
-        <v>25257.51359527392</v>
+        <v>25257.51359527391</v>
       </c>
       <c r="G910">
         <v>14</v>
@@ -24442,7 +24442,7 @@
         <v>1084.923076923077</v>
       </c>
       <c r="E963">
-        <v>223068.9053158487</v>
+        <v>223068.9053158486</v>
       </c>
       <c r="F963">
         <v>87694.17160722829</v>
@@ -24692,10 +24692,10 @@
         <v>44</v>
       </c>
       <c r="E973">
-        <v>31660.22452739983</v>
+        <v>31660.22452739982</v>
       </c>
       <c r="F973">
-        <v>20943.77547260017</v>
+        <v>20943.77547260018</v>
       </c>
       <c r="G973">
         <v>14</v>
@@ -24770,7 +24770,7 @@
         <v>32122.75796489619</v>
       </c>
       <c r="F976">
-        <v>20308.31895818074</v>
+        <v>20308.31895818073</v>
       </c>
       <c r="G976">
         <v>35</v>
@@ -25020,7 +25020,7 @@
         <v>35225.21547228502</v>
       </c>
       <c r="F986">
-        <v>16987.86145079191</v>
+        <v>16987.8614507919</v>
       </c>
       <c r="G986">
         <v>98</v>
@@ -25142,7 +25142,7 @@
         <v>98</v>
       </c>
       <c r="E991">
-        <v>35989.04411773836</v>
+        <v>35989.04411773835</v>
       </c>
       <c r="F991">
         <v>16560.95588226165</v>
@@ -25414,13 +25414,13 @@
         <v>375195</v>
       </c>
       <c r="D1002">
-        <v>1022.307692307693</v>
+        <v>1022.307692307692</v>
       </c>
       <c r="E1002">
         <v>241274.1753023665</v>
       </c>
       <c r="F1002">
-        <v>132898.5170053259</v>
+        <v>132898.5170053258</v>
       </c>
       <c r="G1002">
         <v>28</v>
@@ -25695,7 +25695,7 @@
         <v>256324.2997242439</v>
       </c>
       <c r="F1013">
-        <v>118101.4695065254</v>
+        <v>118101.4695065253</v>
       </c>
       <c r="G1013">
         <v>67</v>
@@ -25717,7 +25717,7 @@
         <v>3629.538461538461</v>
       </c>
       <c r="E1014">
-        <v>255220.3737455045</v>
+        <v>255220.3737455044</v>
       </c>
       <c r="F1014">
         <v>116345.0877929571</v>
@@ -25792,7 +25792,7 @@
         <v>384.6153846153846</v>
       </c>
       <c r="E1017">
-        <v>260722.0061701271</v>
+        <v>260722.006170127</v>
       </c>
       <c r="F1017">
         <v>114088.3784452576</v>
@@ -25817,7 +25817,7 @@
         <v>3161.846153846154</v>
       </c>
       <c r="E1018">
-        <v>259427.4390571053</v>
+        <v>259427.4390571052</v>
       </c>
       <c r="F1018">
         <v>112605.7147890486</v>
@@ -25889,7 +25889,7 @@
         <v>375195</v>
       </c>
       <c r="D1021">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E1021">
         <v>263912.4692188054</v>
@@ -25945,7 +25945,7 @@
         <v>264334.6442541857</v>
       </c>
       <c r="F1023">
-        <v>108800.5095919682</v>
+        <v>108800.5095919681</v>
       </c>
       <c r="G1023">
         <v>105</v>
@@ -26145,7 +26145,7 @@
         <v>268253.4573578433</v>
       </c>
       <c r="F1031">
-        <v>106016.6195652337</v>
+        <v>106016.6195652336</v>
       </c>
       <c r="G1031">
         <v>133</v>
@@ -26195,7 +26195,7 @@
         <v>37823.06547557451</v>
       </c>
       <c r="F1033">
-        <v>28488.9345244255</v>
+        <v>28488.93452442549</v>
       </c>
       <c r="G1033">
         <v>7</v>
@@ -26442,10 +26442,10 @@
         <v>745.8461538461538</v>
       </c>
       <c r="E1043">
-        <v>41088.23867370992</v>
+        <v>41088.23867370991</v>
       </c>
       <c r="F1043">
-        <v>24527.91517244392</v>
+        <v>24527.91517244394</v>
       </c>
       <c r="G1043">
         <v>77</v>
@@ -26620,7 +26620,7 @@
         <v>43191.45099365994</v>
       </c>
       <c r="F1050">
-        <v>22990.54900634007</v>
+        <v>22990.54900634006</v>
       </c>
       <c r="G1050">
         <v>126</v>
@@ -26867,7 +26867,7 @@
         <v>384.6153846153846</v>
       </c>
       <c r="E1060">
-        <v>138085.6669659345</v>
+        <v>138085.6669659344</v>
       </c>
       <c r="F1060">
         <v>80800.71764945018</v>
@@ -27042,7 +27042,7 @@
         <v>1618.461538461539</v>
       </c>
       <c r="E1067">
-        <v>141999.7165533498</v>
+        <v>141999.7165533497</v>
       </c>
       <c r="F1067">
         <v>75652.82190818872</v>
@@ -27214,7 +27214,7 @@
         <v>219271</v>
       </c>
       <c r="D1074">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E1074">
         <v>152352.1776899544</v>
@@ -27414,7 +27414,7 @@
         <v>219271</v>
       </c>
       <c r="D1082">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E1082">
         <v>160664.8124119587</v>
@@ -27570,7 +27570,7 @@
         <v>165175.1085279111</v>
       </c>
       <c r="F1088">
-        <v>53392.04531824275</v>
+        <v>53392.04531824274</v>
       </c>
       <c r="G1088">
         <v>140</v>
@@ -27742,7 +27742,7 @@
         <v>4</v>
       </c>
       <c r="E1095">
-        <v>5394.371386481877</v>
+        <v>5394.371386481876</v>
       </c>
       <c r="F1095">
         <v>6149.628613518124</v>
@@ -27817,7 +27817,7 @@
         <v>96.92307692307691</v>
       </c>
       <c r="E1098">
-        <v>5522.522261580813</v>
+        <v>5522.522261580812</v>
       </c>
       <c r="F1098">
         <v>5928.554661496111</v>
@@ -27895,7 +27895,7 @@
         <v>5763.816478690707</v>
       </c>
       <c r="F1101">
-        <v>5649.260444386217</v>
+        <v>5649.260444386216</v>
       </c>
       <c r="G1101">
         <v>77</v>
@@ -28542,7 +28542,7 @@
         <v>267.8461538461538</v>
       </c>
       <c r="E1127">
-        <v>5216.891431844219</v>
+        <v>5216.891431844218</v>
       </c>
       <c r="F1127">
         <v>3024.262414309627</v>
@@ -28670,7 +28670,7 @@
         <v>5927.24313581452</v>
       </c>
       <c r="F1132">
-        <v>2491.756864185481</v>
+        <v>2491.75686418548</v>
       </c>
       <c r="G1132">
         <v>126</v>
@@ -28917,7 +28917,7 @@
         <v>10</v>
       </c>
       <c r="E1142">
-        <v>36069.39801579587</v>
+        <v>36069.39801579586</v>
       </c>
       <c r="F1142">
         <v>23248.60198420414</v>
@@ -29142,7 +29142,7 @@
         <v>494.9230769230769</v>
       </c>
       <c r="E1151">
-        <v>38401.70197629422</v>
+        <v>38401.70197629421</v>
       </c>
       <c r="F1151">
         <v>20431.37494678271</v>
@@ -29195,7 +29195,7 @@
         <v>39131.10074049665</v>
       </c>
       <c r="F1153">
-        <v>19966.13002873412</v>
+        <v>19966.13002873411</v>
       </c>
       <c r="G1153">
         <v>88</v>
@@ -29317,7 +29317,7 @@
         <v>401.8461538461538</v>
       </c>
       <c r="E1158">
-        <v>39973.93300418939</v>
+        <v>39973.93300418938</v>
       </c>
       <c r="F1158">
         <v>18952.22084196446</v>
@@ -29492,7 +29492,7 @@
         <v>180</v>
       </c>
       <c r="E1165">
-        <v>40847.88273784609</v>
+        <v>40847.88273784608</v>
       </c>
       <c r="F1165">
         <v>18300.11726215392</v>
@@ -29845,7 +29845,7 @@
         <v>14745.15276879775</v>
       </c>
       <c r="F1179">
-        <v>6072.924154279172</v>
+        <v>6072.924154279171</v>
       </c>
       <c r="G1179">
         <v>91</v>
@@ -30192,7 +30192,7 @@
         <v>76.92307692307691</v>
       </c>
       <c r="E1193">
-        <v>332264.6105780031</v>
+        <v>332264.610578003</v>
       </c>
       <c r="F1193">
         <v>195526.4663450738</v>
@@ -30264,7 +30264,7 @@
         <v>527868</v>
       </c>
       <c r="D1196">
-        <v>743.5384615384616</v>
+        <v>743.5384615384615</v>
       </c>
       <c r="E1196">
         <v>335018.1528237421</v>
@@ -30439,7 +30439,7 @@
         <v>527868</v>
       </c>
       <c r="D1203">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E1203">
         <v>344638.3426820427</v>
@@ -30639,7 +30639,7 @@
         <v>527868</v>
       </c>
       <c r="D1211">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E1211">
         <v>359292.6984095328</v>
@@ -30689,7 +30689,7 @@
         <v>527868</v>
       </c>
       <c r="D1213">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E1213">
         <v>361449.1127437789</v>
@@ -30739,7 +30739,7 @@
         <v>527868</v>
       </c>
       <c r="D1215">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E1215">
         <v>363474.7369718105</v>
@@ -30864,7 +30864,7 @@
         <v>527868</v>
       </c>
       <c r="D1220">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E1220">
         <v>369064.7908276708</v>
@@ -30892,7 +30892,7 @@
         <v>2541.846153846154</v>
       </c>
       <c r="E1221">
-        <v>368212.6432636397</v>
+        <v>368212.6432636396</v>
       </c>
       <c r="F1221">
         <v>157113.5105825142</v>
@@ -30967,7 +30967,7 @@
         <v>307.6923076923077</v>
       </c>
       <c r="E1224">
-        <v>371811.7333327335</v>
+        <v>371811.7333327334</v>
       </c>
       <c r="F1224">
         <v>155748.5743595743</v>
@@ -30992,7 +30992,7 @@
         <v>1396.923076923077</v>
       </c>
       <c r="E1225">
-        <v>371397.462856733</v>
+        <v>371397.4628567329</v>
       </c>
       <c r="F1225">
         <v>155073.6140663439</v>
@@ -31095,7 +31095,7 @@
         <v>31877.22500142333</v>
       </c>
       <c r="F1229">
-        <v>19290.77499857668</v>
+        <v>19290.77499857667</v>
       </c>
       <c r="G1229">
         <v>0</v>
@@ -31217,7 +31217,7 @@
         <v>307.6923076923077</v>
       </c>
       <c r="E1234">
-        <v>32439.60567143576</v>
+        <v>32439.60567143575</v>
       </c>
       <c r="F1234">
         <v>18442.70202087194</v>
@@ -31245,7 +31245,7 @@
         <v>32736.75491942761</v>
       </c>
       <c r="F1235">
-        <v>18328.32200364932</v>
+        <v>18328.32200364931</v>
       </c>
       <c r="G1235">
         <v>35</v>
@@ -31445,7 +31445,7 @@
         <v>34534.95618593818</v>
       </c>
       <c r="F1243">
-        <v>16037.19766021567</v>
+        <v>16037.19766021566</v>
       </c>
       <c r="G1243">
         <v>77</v>
@@ -31995,7 +31995,7 @@
         <v>67253.6558894139</v>
       </c>
       <c r="F1265">
-        <v>64768.42103366304</v>
+        <v>64768.42103366303</v>
       </c>
       <c r="G1265">
         <v>21</v>
@@ -32042,7 +32042,7 @@
         <v>595.6923076923076</v>
       </c>
       <c r="E1267">
-        <v>67829.71545546418</v>
+        <v>67829.71545546417</v>
       </c>
       <c r="F1267">
         <v>63857.59223684351</v>
@@ -32445,7 +32445,7 @@
         <v>78047.41732519024</v>
       </c>
       <c r="F1283">
-        <v>52863.73652096361</v>
+        <v>52863.7365209636</v>
       </c>
       <c r="G1283">
         <v>84</v>
@@ -32492,7 +32492,7 @@
         <v>1199.846153846154</v>
       </c>
       <c r="E1285">
-        <v>79175.771447318</v>
+        <v>79175.77144731799</v>
       </c>
       <c r="F1285">
         <v>51907.38239883585</v>
@@ -32620,7 +32620,7 @@
         <v>82157.59356056839</v>
       </c>
       <c r="F1290">
-        <v>49774.48336250855</v>
+        <v>49774.48336250854</v>
       </c>
       <c r="G1290">
         <v>126</v>
@@ -32792,7 +32792,7 @@
         <v>14</v>
       </c>
       <c r="E1297">
-        <v>36784.43177374311</v>
+        <v>36784.4317737431</v>
       </c>
       <c r="F1297">
         <v>24254.5682262569</v>
@@ -33142,7 +33142,7 @@
         <v>567.8461538461538</v>
       </c>
       <c r="E1311">
-        <v>39676.88817213728</v>
+        <v>39676.88817213727</v>
       </c>
       <c r="F1311">
         <v>20808.26567401657</v>
@@ -33167,7 +33167,7 @@
         <v>76.92307692307691</v>
       </c>
       <c r="E1312">
-        <v>40390.86138861405</v>
+        <v>40390.86138861404</v>
       </c>
       <c r="F1312">
         <v>20585.21553446288</v>
@@ -33192,7 +33192,7 @@
         <v>722.7692307692308</v>
       </c>
       <c r="E1313">
-        <v>40233.46495896622</v>
+        <v>40233.46495896621</v>
       </c>
       <c r="F1313">
         <v>20096.76581026455</v>
@@ -33392,7 +33392,7 @@
         <v>747.8461538461538</v>
       </c>
       <c r="E1321">
-        <v>42383.85541650139</v>
+        <v>42383.85541650138</v>
       </c>
       <c r="F1321">
         <v>17921.29842965246</v>
@@ -34017,7 +34017,7 @@
         <v>1016.923076923077</v>
       </c>
       <c r="E1346">
-        <v>75327.0157305144</v>
+        <v>75327.01573051439</v>
       </c>
       <c r="F1346">
         <v>38569.06119256253</v>
@@ -34145,7 +34145,7 @@
         <v>77935.08864218248</v>
       </c>
       <c r="F1351">
-        <v>36439.44981935599</v>
+        <v>36439.44981935598</v>
       </c>
       <c r="G1351">
         <v>88</v>
@@ -34167,7 +34167,7 @@
         <v>1091.846153846154</v>
       </c>
       <c r="E1352">
-        <v>77933.24836834979</v>
+        <v>77933.24836834978</v>
       </c>
       <c r="F1352">
         <v>35887.90547780406</v>
@@ -34345,7 +34345,7 @@
         <v>80600.57665710904</v>
       </c>
       <c r="F1359">
-        <v>33822.42334289097</v>
+        <v>33822.42334289096</v>
       </c>
       <c r="G1359">
         <v>126</v>
@@ -34595,7 +34595,7 @@
         <v>14320.76108909958</v>
       </c>
       <c r="F1369">
-        <v>9608.31583397734</v>
+        <v>9608.315833977344</v>
       </c>
       <c r="G1369">
         <v>35</v>
@@ -34895,7 +34895,7 @@
         <v>15795.12220987549</v>
       </c>
       <c r="F1381">
-        <v>8100.877790124509</v>
+        <v>8100.877790124508</v>
       </c>
       <c r="G1381">
         <v>119</v>
@@ -35145,7 +35145,7 @@
         <v>21721.54968670134</v>
       </c>
       <c r="F1391">
-        <v>32145.45031329867</v>
+        <v>32145.45031329866</v>
       </c>
       <c r="G1391">
         <v>0</v>
@@ -35167,10 +35167,10 @@
         <v>46</v>
       </c>
       <c r="E1392">
-        <v>22108.38793001741</v>
+        <v>22108.3879300174</v>
       </c>
       <c r="F1392">
-        <v>31802.61206998259</v>
+        <v>31802.6120699826</v>
       </c>
       <c r="G1392">
         <v>7</v>
@@ -35192,7 +35192,7 @@
         <v>32</v>
       </c>
       <c r="E1393">
-        <v>22391.36510454368</v>
+        <v>22391.36510454367</v>
       </c>
       <c r="F1393">
         <v>31533.63489545633</v>
@@ -35445,7 +35445,7 @@
         <v>25920.06211900221</v>
       </c>
       <c r="F1403">
-        <v>27883.09172715163</v>
+        <v>27883.09172715164</v>
       </c>
       <c r="G1403">
         <v>74</v>
@@ -35645,7 +35645,7 @@
         <v>28751.08938261964</v>
       </c>
       <c r="F1411">
-        <v>24852.98754045729</v>
+        <v>24852.98754045728</v>
       </c>
       <c r="G1411">
         <v>119</v>
@@ -36117,7 +36117,7 @@
         <v>30</v>
       </c>
       <c r="E1430">
-        <v>3980.243820500964</v>
+        <v>3980.243820500963</v>
       </c>
       <c r="F1430">
         <v>1202.756179499037</v>
@@ -36270,7 +36270,7 @@
         <v>100791.0567649791</v>
       </c>
       <c r="F1436">
-        <v>74616.9432350209</v>
+        <v>74616.94323502094</v>
       </c>
       <c r="G1436">
         <v>7</v>
@@ -36320,7 +36320,7 @@
         <v>102358.7124547318</v>
       </c>
       <c r="F1438">
-        <v>72941.44139142204</v>
+        <v>72941.44139142203</v>
       </c>
       <c r="G1438">
         <v>21</v>
@@ -36520,7 +36520,7 @@
         <v>106946.2976894546</v>
       </c>
       <c r="F1446">
-        <v>67718.77923362237</v>
+        <v>67718.77923362236</v>
       </c>
       <c r="G1446">
         <v>56</v>
@@ -36670,7 +36670,7 @@
         <v>111709.2839734668</v>
       </c>
       <c r="F1452">
-        <v>61967.02371884087</v>
+        <v>61967.02371884086</v>
       </c>
       <c r="G1452">
         <v>77</v>
@@ -36742,7 +36742,7 @@
         <v>76.92307692307691</v>
       </c>
       <c r="E1455">
-        <v>115222.2460007539</v>
+        <v>115222.2460007538</v>
       </c>
       <c r="F1455">
         <v>60238.83092232309</v>
@@ -36845,7 +36845,7 @@
         <v>117472.3779193415</v>
       </c>
       <c r="F1459">
-        <v>56159.77592681231</v>
+        <v>56159.7759268123</v>
       </c>
       <c r="G1459">
         <v>105</v>
@@ -37142,10 +37142,10 @@
         <v>88.92307692307691</v>
       </c>
       <c r="E1471">
-        <v>24229.47090194366</v>
+        <v>24229.47090194365</v>
       </c>
       <c r="F1471">
-        <v>18619.60602113326</v>
+        <v>18619.60602113327</v>
       </c>
       <c r="G1471">
         <v>21</v>
@@ -37245,7 +37245,7 @@
         <v>24722.3679471762</v>
       </c>
       <c r="F1475">
-        <v>18061.78589897764</v>
+        <v>18061.78589897765</v>
       </c>
       <c r="G1475">
         <v>46</v>
@@ -37342,7 +37342,7 @@
         <v>306</v>
       </c>
       <c r="E1479">
-        <v>25584.36484429833</v>
+        <v>25584.36484429832</v>
       </c>
       <c r="F1479">
         <v>17047.63515570168</v>
@@ -37667,7 +37667,7 @@
         <v>56</v>
       </c>
       <c r="E1492">
-        <v>28244.33900147056</v>
+        <v>28244.33900147055</v>
       </c>
       <c r="F1492">
         <v>14637.66099852945</v>
@@ -37842,7 +37842,7 @@
         <v>926.4615384615385</v>
       </c>
       <c r="E1499">
-        <v>118503.2837762081</v>
+        <v>118503.283776208</v>
       </c>
       <c r="F1499">
         <v>77440.25468533042</v>
@@ -37964,7 +37964,7 @@
         <v>196870</v>
       </c>
       <c r="D1504">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E1504">
         <v>122251.8897972033</v>
@@ -37989,7 +37989,7 @@
         <v>196870</v>
       </c>
       <c r="D1505">
-        <v>1759.384615384616</v>
+        <v>1759.384615384615</v>
       </c>
       <c r="E1505">
         <v>122239.0455605149</v>
@@ -38070,7 +38070,7 @@
         <v>126488.565386498</v>
       </c>
       <c r="F1508">
-        <v>70073.74230580971</v>
+        <v>70073.7423058097</v>
       </c>
       <c r="G1508">
         <v>60</v>
@@ -38420,7 +38420,7 @@
         <v>137188.0501512198</v>
       </c>
       <c r="F1522">
-        <v>58903.94984878021</v>
+        <v>58903.9498487802</v>
       </c>
       <c r="G1522">
         <v>119</v>
@@ -38467,7 +38467,7 @@
         <v>660.9230769230769</v>
       </c>
       <c r="E1524">
-        <v>138069.9267974295</v>
+        <v>138069.9267974294</v>
       </c>
       <c r="F1524">
         <v>58139.15012564749</v>
@@ -38645,7 +38645,7 @@
         <v>6180.013990344311</v>
       </c>
       <c r="F1531">
-        <v>3385.98600965569</v>
+        <v>3385.986009655689</v>
       </c>
       <c r="G1531">
         <v>28</v>
@@ -38667,7 +38667,7 @@
         <v>100.9230769230769</v>
       </c>
       <c r="E1532">
-        <v>6194.823589410838</v>
+        <v>6194.823589410837</v>
       </c>
       <c r="F1532">
         <v>3298.253333666086</v>
@@ -38892,7 +38892,7 @@
         <v>46</v>
       </c>
       <c r="E1541">
-        <v>7018.258951416628</v>
+        <v>7018.258951416627</v>
       </c>
       <c r="F1541">
         <v>2529.741048583373</v>
@@ -38917,7 +38917,7 @@
         <v>28</v>
       </c>
       <c r="E1542">
-        <v>7053.064794271139</v>
+        <v>7053.064794271138</v>
       </c>
       <c r="F1542">
         <v>2512.935205728862</v>
@@ -39342,10 +39342,10 @@
         <v>153.8461538461538</v>
       </c>
       <c r="E1559">
-        <v>37416.82392729211</v>
+        <v>37416.82392729209</v>
       </c>
       <c r="F1559">
-        <v>22910.32991886174</v>
+        <v>22910.32991886175</v>
       </c>
       <c r="G1559">
         <v>60</v>
@@ -39395,7 +39395,7 @@
         <v>38007.61931734762</v>
       </c>
       <c r="F1561">
-        <v>22165.68837496008</v>
+        <v>22165.68837496007</v>
       </c>
       <c r="G1561">
         <v>67</v>
@@ -39570,7 +39570,7 @@
         <v>40484.26707041387</v>
       </c>
       <c r="F1568">
-        <v>19316.73292958614</v>
+        <v>19316.73292958613</v>
       </c>
       <c r="G1568">
         <v>98</v>
@@ -40220,7 +40220,7 @@
         <v>38993.80533551011</v>
       </c>
       <c r="F1594">
-        <v>17121.27158756682</v>
+        <v>17121.27158756681</v>
       </c>
       <c r="G1594">
         <v>63</v>
@@ -40267,7 +40267,7 @@
         <v>680.9230769230769</v>
       </c>
       <c r="E1596">
-        <v>39470.15864581664</v>
+        <v>39470.15864581663</v>
       </c>
       <c r="F1596">
         <v>16604.91827726029</v>
@@ -41420,7 +41420,7 @@
         <v>22290.73133747036</v>
       </c>
       <c r="F1642">
-        <v>12502.26866252965</v>
+        <v>12502.26866252964</v>
       </c>
       <c r="G1642">
         <v>21</v>
@@ -42092,7 +42092,7 @@
         <v>68</v>
       </c>
       <c r="E1669">
-        <v>26493.84160699805</v>
+        <v>26493.84160699804</v>
       </c>
       <c r="F1669">
         <v>8251.158393001955</v>
@@ -42245,7 +42245,7 @@
         <v>13683.62625504025</v>
       </c>
       <c r="F1675">
-        <v>7811.373744959748</v>
+        <v>7811.373744959752</v>
       </c>
       <c r="G1675">
         <v>28</v>
@@ -42370,7 +42370,7 @@
         <v>13992.21791569807</v>
       </c>
       <c r="F1680">
-        <v>7199.089776609621</v>
+        <v>7199.08977660962</v>
       </c>
       <c r="G1680">
         <v>60</v>
@@ -42414,7 +42414,7 @@
         <v>21499</v>
       </c>
       <c r="D1682">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E1682">
         <v>14239.96639522149</v>
@@ -42795,7 +42795,7 @@
         <v>13275.2719534266</v>
       </c>
       <c r="F1697">
-        <v>9543.728046573398</v>
+        <v>9543.728046573402</v>
       </c>
       <c r="G1697">
         <v>0</v>
@@ -43345,7 +43345,7 @@
         <v>16752.85618178624</v>
       </c>
       <c r="F1719">
-        <v>5896.143818213765</v>
+        <v>5896.143818213764</v>
       </c>
       <c r="G1719">
         <v>126</v>
@@ -43570,7 +43570,7 @@
         <v>26541.43938888679</v>
       </c>
       <c r="F1728">
-        <v>18663.56061111322</v>
+        <v>18663.56061111321</v>
       </c>
       <c r="G1728">
         <v>0</v>
@@ -43592,10 +43592,10 @@
         <v>22</v>
       </c>
       <c r="E1729">
-        <v>26760.23175922657</v>
+        <v>26760.23175922656</v>
       </c>
       <c r="F1729">
-        <v>18444.76824077343</v>
+        <v>18444.76824077344</v>
       </c>
       <c r="G1729">
         <v>7</v>
@@ -43717,7 +43717,7 @@
         <v>195.8461538461538</v>
       </c>
       <c r="E1734">
-        <v>27530.07522998938</v>
+        <v>27530.07522998937</v>
       </c>
       <c r="F1734">
         <v>17501.07861616447</v>
@@ -43939,7 +43939,7 @@
         <v>45227</v>
       </c>
       <c r="D1743">
-        <v>957.5384615384616</v>
+        <v>957.5384615384615</v>
       </c>
       <c r="E1743">
         <v>29700.52177691572</v>
@@ -44092,7 +44092,7 @@
         <v>230.7692307692308</v>
       </c>
       <c r="E1749">
-        <v>32620.13424072433</v>
+        <v>32620.13424072432</v>
       </c>
       <c r="F1749">
         <v>12376.09652850644</v>
@@ -44167,7 +44167,7 @@
         <v>766.9230769230769</v>
       </c>
       <c r="E1752">
-        <v>33137.48316052096</v>
+        <v>33137.48316052095</v>
       </c>
       <c r="F1752">
         <v>11322.59376255597</v>
@@ -44467,10 +44467,10 @@
         <v>693.8461538461538</v>
       </c>
       <c r="E1764">
-        <v>665514.6127039385</v>
+        <v>665514.6127039384</v>
       </c>
       <c r="F1764">
-        <v>408266.5411422153</v>
+        <v>408266.5411422154</v>
       </c>
       <c r="G1764">
         <v>3</v>
@@ -44692,7 +44692,7 @@
         <v>769.2307692307695</v>
       </c>
       <c r="E1773">
-        <v>694579.5096615522</v>
+        <v>694579.5096615521</v>
       </c>
       <c r="F1773">
         <v>379126.2595692171</v>
@@ -45189,7 +45189,7 @@
         <v>1074475</v>
       </c>
       <c r="D1793">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E1793">
         <v>758736.0969074956</v>
@@ -45214,7 +45214,7 @@
         <v>1074475</v>
       </c>
       <c r="D1794">
-        <v>5700.769230769231</v>
+        <v>5700.76923076923</v>
       </c>
       <c r="E1794">
         <v>756126.8162729581</v>
@@ -45239,7 +45239,7 @@
         <v>1074475</v>
       </c>
       <c r="D1795">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E1795">
         <v>761578.9697355926</v>
@@ -45917,10 +45917,10 @@
         <v>134.9230769230769</v>
       </c>
       <c r="E1822">
-        <v>9407.859505968723</v>
+        <v>9407.859505968721</v>
       </c>
       <c r="F1822">
-        <v>5461.217417108201</v>
+        <v>5461.217417108202</v>
       </c>
       <c r="G1822">
         <v>126</v>
@@ -46045,7 +46045,7 @@
         <v>9652.857064882885</v>
       </c>
       <c r="F1827">
-        <v>5299.142935117116</v>
+        <v>5299.142935117115</v>
       </c>
       <c r="G1827">
         <v>161</v>
@@ -46567,7 +46567,7 @@
         <v>94</v>
       </c>
       <c r="E1848">
-        <v>20873.93793634376</v>
+        <v>20873.93793634375</v>
       </c>
       <c r="F1848">
         <v>6284.062063656245</v>
@@ -46770,7 +46770,7 @@
         <v>62511.36020675059</v>
       </c>
       <c r="F1856">
-        <v>34730.63979324942</v>
+        <v>34730.63979324941</v>
       </c>
       <c r="G1856">
         <v>14</v>
@@ -47170,7 +47170,7 @@
         <v>67188.13336056352</v>
       </c>
       <c r="F1872">
-        <v>29175.86663943649</v>
+        <v>29175.86663943648</v>
       </c>
       <c r="G1872">
         <v>77</v>
@@ -47295,7 +47295,7 @@
         <v>69466.17334067643</v>
       </c>
       <c r="F1877">
-        <v>26957.82665932358</v>
+        <v>26957.82665932357</v>
       </c>
       <c r="G1877">
         <v>105</v>
@@ -47767,7 +47767,7 @@
         <v>474.7692307692308</v>
       </c>
       <c r="E1896">
-        <v>64254.68464596848</v>
+        <v>64254.68464596847</v>
       </c>
       <c r="F1896">
         <v>29300.54612326229</v>
@@ -47892,7 +47892,7 @@
         <v>683.8461538461538</v>
       </c>
       <c r="E1901">
-        <v>66278.02960238193</v>
+        <v>66278.02960238192</v>
       </c>
       <c r="F1901">
         <v>27068.12424377192</v>
@@ -47917,7 +47917,7 @@
         <v>895.8461538461538</v>
       </c>
       <c r="E1902">
-        <v>66600.63239448732</v>
+        <v>66600.63239448731</v>
       </c>
       <c r="F1902">
         <v>26533.52145166653</v>
@@ -48514,7 +48514,7 @@
         <v>227938</v>
       </c>
       <c r="D1926">
-        <v>599.5384615384616</v>
+        <v>599.5384615384615</v>
       </c>
       <c r="E1926">
         <v>144680.1484023245</v>
@@ -49092,7 +49092,7 @@
         <v>632.9230769230769</v>
       </c>
       <c r="E1949">
-        <v>161302.4971248178</v>
+        <v>161302.4971248177</v>
       </c>
       <c r="F1949">
         <v>66002.57979825919</v>
@@ -49142,7 +49142,7 @@
         <v>286</v>
       </c>
       <c r="E1951">
-        <v>161975.0779924466</v>
+        <v>161975.0779924465</v>
       </c>
       <c r="F1951">
         <v>65676.92200755345</v>
@@ -49645,7 +49645,7 @@
         <v>13560.90214928206</v>
       </c>
       <c r="F1971">
-        <v>6165.097850717943</v>
+        <v>6165.097850717942</v>
       </c>
       <c r="G1971">
         <v>112</v>
@@ -49717,7 +49717,7 @@
         <v>74</v>
       </c>
       <c r="E1974">
-        <v>13922.95028304082</v>
+        <v>13922.95028304081</v>
       </c>
       <c r="F1974">
         <v>5949.049716959185</v>
@@ -49742,7 +49742,7 @@
         <v>60</v>
       </c>
       <c r="E1975">
-        <v>13973.47337457351</v>
+        <v>13973.4733745735</v>
       </c>
       <c r="F1975">
         <v>5912.526625426495</v>
@@ -49892,7 +49892,7 @@
         <v>166</v>
       </c>
       <c r="E1981">
-        <v>79983.41268684864</v>
+        <v>79983.41268684863</v>
       </c>
       <c r="F1981">
         <v>114919.5873131514</v>
@@ -49964,7 +49964,7 @@
         <v>195069</v>
       </c>
       <c r="D1984">
-        <v>599.5384615384616</v>
+        <v>599.5384615384615</v>
       </c>
       <c r="E1984">
         <v>81519.1551594232</v>
@@ -49992,7 +49992,7 @@
         <v>76.92307692307691</v>
       </c>
       <c r="E1985">
-        <v>82384.76072424284</v>
+        <v>82384.76072424283</v>
       </c>
       <c r="F1985">
         <v>112607.3161988341</v>
@@ -50089,7 +50089,7 @@
         <v>195069</v>
       </c>
       <c r="D1989">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E1989">
         <v>84147.54600335252</v>
@@ -50192,7 +50192,7 @@
         <v>230.7692307692308</v>
       </c>
       <c r="E1993">
-        <v>87197.48797639278</v>
+        <v>87197.48797639277</v>
       </c>
       <c r="F1993">
         <v>107640.742792838</v>
@@ -50245,7 +50245,7 @@
         <v>89402.48925420018</v>
       </c>
       <c r="F1995">
-        <v>105281.8953611845</v>
+        <v>105281.8953611844</v>
       </c>
       <c r="G1995">
         <v>53</v>
@@ -50317,10 +50317,10 @@
         <v>2539.846153846154</v>
       </c>
       <c r="E1998">
-        <v>91890.3761398279</v>
+        <v>91890.37613982787</v>
       </c>
       <c r="F1998">
-        <v>100638.7777063259</v>
+        <v>100638.777706326</v>
       </c>
       <c r="G1998">
         <v>63</v>
@@ -50817,10 +50817,10 @@
         <v>240</v>
       </c>
       <c r="E2018">
-        <v>111010.167296839</v>
+        <v>111010.1672968389</v>
       </c>
       <c r="F2018">
-        <v>83818.83270316104</v>
+        <v>83818.83270316105</v>
       </c>
       <c r="G2018">
         <v>154</v>
@@ -51492,7 +51492,7 @@
         <v>2</v>
       </c>
       <c r="E2045">
-        <v>7370.431703034376</v>
+        <v>7370.431703034375</v>
       </c>
       <c r="F2045">
         <v>5328.568296965625</v>
@@ -51592,7 +51592,7 @@
         <v>2</v>
       </c>
       <c r="E2049">
-        <v>7683.15639376413</v>
+        <v>7683.156393764129</v>
       </c>
       <c r="F2049">
         <v>5015.843606235871</v>
@@ -51820,7 +51820,7 @@
         <v>8287.580662002913</v>
       </c>
       <c r="F2058">
-        <v>4315.419337997088</v>
+        <v>4315.419337997087</v>
       </c>
       <c r="G2058">
         <v>105</v>
@@ -52267,7 +52267,7 @@
         <v>108.9230769230769</v>
       </c>
       <c r="E2076">
-        <v>24311.79976249836</v>
+        <v>24311.79976249835</v>
       </c>
       <c r="F2076">
         <v>15093.27716057857</v>
@@ -52292,7 +52292,7 @@
         <v>230.7692307692308</v>
       </c>
       <c r="E2077">
-        <v>24383.08407074052</v>
+        <v>24383.08407074051</v>
       </c>
       <c r="F2077">
         <v>14900.14669849025</v>
@@ -52520,7 +52520,7 @@
         <v>26086.67604540883</v>
       </c>
       <c r="F2086">
-        <v>12897.47780074502</v>
+        <v>12897.47780074501</v>
       </c>
       <c r="G2086">
         <v>84</v>
@@ -52542,7 +52542,7 @@
         <v>487.8461538461538</v>
       </c>
       <c r="E2087">
-        <v>26404.69989742926</v>
+        <v>26404.69989742925</v>
       </c>
       <c r="F2087">
         <v>12621.45394872459</v>
@@ -53167,7 +53167,7 @@
         <v>630.7692307692308</v>
       </c>
       <c r="E2112">
-        <v>35850.6384674965</v>
+        <v>35850.63846749649</v>
       </c>
       <c r="F2112">
         <v>23917.59230173427</v>
@@ -53520,7 +53520,7 @@
         <v>40595.3962013795</v>
       </c>
       <c r="F2126">
-        <v>19719.60379862051</v>
+        <v>19719.6037986205</v>
       </c>
       <c r="G2126">
         <v>147</v>
@@ -53542,7 +53542,7 @@
         <v>144</v>
       </c>
       <c r="E2127">
-        <v>40616.8241104889</v>
+        <v>40616.82411048889</v>
       </c>
       <c r="F2127">
         <v>19638.17588951111</v>
@@ -53567,7 +53567,7 @@
         <v>176</v>
       </c>
       <c r="E2128">
-        <v>40684.3471105115</v>
+        <v>40684.34711051149</v>
       </c>
       <c r="F2128">
         <v>19538.65288948851</v>
@@ -53670,7 +53670,7 @@
         <v>6739.702707490726</v>
       </c>
       <c r="F2132">
-        <v>6688.297292509275</v>
+        <v>6688.297292509274</v>
       </c>
       <c r="G2132">
         <v>21</v>
@@ -53917,7 +53917,7 @@
         <v>90</v>
       </c>
       <c r="E2142">
-        <v>7467.933513247665</v>
+        <v>7467.933513247664</v>
       </c>
       <c r="F2142">
         <v>5872.066486752336</v>
@@ -53970,7 +53970,7 @@
         <v>7592.663594020803</v>
       </c>
       <c r="F2144">
-        <v>5773.336405979198</v>
+        <v>5773.336405979197</v>
       </c>
       <c r="G2144">
         <v>105</v>
@@ -54217,10 +54217,10 @@
         <v>46</v>
       </c>
       <c r="E2154">
-        <v>8002.451135704207</v>
+        <v>8002.451135704205</v>
       </c>
       <c r="F2154">
-        <v>5381.548864295794</v>
+        <v>5381.548864295795</v>
       </c>
       <c r="G2154">
         <v>175</v>
@@ -54367,10 +54367,10 @@
         <v>116.9230769230769</v>
       </c>
       <c r="E2160">
-        <v>23182.14944229126</v>
+        <v>23182.14944229125</v>
       </c>
       <c r="F2160">
-        <v>16045.92748078566</v>
+        <v>16045.92748078567</v>
       </c>
       <c r="G2160">
         <v>35</v>
@@ -54395,7 +54395,7 @@
         <v>23404.47077801622</v>
       </c>
       <c r="F2161">
-        <v>15833.60614506071</v>
+        <v>15833.6061450607</v>
       </c>
       <c r="G2161">
         <v>42</v>
@@ -54467,10 +54467,10 @@
         <v>134.9230769230769</v>
       </c>
       <c r="E2164">
-        <v>24020.79848599016</v>
+        <v>24020.79848599015</v>
       </c>
       <c r="F2164">
-        <v>15189.27843708676</v>
+        <v>15189.27843708677</v>
       </c>
       <c r="G2164">
         <v>63</v>
@@ -54495,7 +54495,7 @@
         <v>24241.5724616985</v>
       </c>
       <c r="F2165">
-        <v>15039.42753830151</v>
+        <v>15039.4275383015</v>
       </c>
       <c r="G2165">
         <v>70</v>
@@ -54570,7 +54570,7 @@
         <v>24742.23998479614</v>
       </c>
       <c r="F2168">
-        <v>14280.9138613577</v>
+        <v>14280.91386135771</v>
       </c>
       <c r="G2168">
         <v>91</v>
@@ -54592,7 +54592,7 @@
         <v>385.8461538461538</v>
       </c>
       <c r="E2169">
-        <v>25054.04934336119</v>
+        <v>25054.04934336118</v>
       </c>
       <c r="F2169">
         <v>13905.10450279266</v>
@@ -54717,7 +54717,7 @@
         <v>414</v>
       </c>
       <c r="E2174">
-        <v>26070.17321707056</v>
+        <v>26070.17321707055</v>
       </c>
       <c r="F2174">
         <v>12860.82678292945</v>
@@ -54895,7 +54895,7 @@
         <v>27116.3863809482</v>
       </c>
       <c r="F2181">
-        <v>12144.61361905181</v>
+        <v>12144.6136190518</v>
       </c>
       <c r="G2181">
         <v>175</v>
@@ -54942,7 +54942,7 @@
         <v>188.9230769230769</v>
       </c>
       <c r="E2183">
-        <v>101305.3181732936</v>
+        <v>101305.3181732935</v>
       </c>
       <c r="F2183">
         <v>76938.75874978339</v>
@@ -55020,7 +55020,7 @@
         <v>103543.6242620448</v>
       </c>
       <c r="F2186">
-        <v>74812.45266103211</v>
+        <v>74812.4526610321</v>
       </c>
       <c r="G2186">
         <v>18</v>
@@ -55120,7 +55120,7 @@
         <v>105170.920053354</v>
       </c>
       <c r="F2190">
-        <v>72877.46456203066</v>
+        <v>72877.46456203065</v>
       </c>
       <c r="G2190">
         <v>32</v>
@@ -55164,10 +55164,10 @@
         <v>178433</v>
       </c>
       <c r="D2192">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E2192">
-        <v>106364.4527657393</v>
+        <v>106364.4527657392</v>
       </c>
       <c r="F2192">
         <v>71607.00877272229</v>
@@ -55392,7 +55392,7 @@
         <v>2064</v>
       </c>
       <c r="E2201">
-        <v>112877.5587698439</v>
+        <v>112877.5587698438</v>
       </c>
       <c r="F2201">
         <v>63491.44123015615</v>
@@ -55417,7 +55417,7 @@
         <v>2200.923076923077</v>
       </c>
       <c r="E2202">
-        <v>113946.2282382261</v>
+        <v>113946.228238226</v>
       </c>
       <c r="F2202">
         <v>62285.84868485089</v>
@@ -55595,7 +55595,7 @@
         <v>119323.2829152297</v>
       </c>
       <c r="F2209">
-        <v>58681.7170847703</v>
+        <v>58681.71708477029</v>
       </c>
       <c r="G2209">
         <v>133</v>
@@ -55892,7 +55892,7 @@
         <v>230.7692307692308</v>
       </c>
       <c r="E2221">
-        <v>11646.19149217722</v>
+        <v>11646.19149217721</v>
       </c>
       <c r="F2221">
         <v>8680.039277053555</v>
@@ -56095,7 +56095,7 @@
         <v>12942.71008923315</v>
       </c>
       <c r="F2229">
-        <v>7417.366833843777</v>
+        <v>7417.366833843776</v>
       </c>
       <c r="G2229">
         <v>105</v>
@@ -56117,7 +56117,7 @@
         <v>90</v>
       </c>
       <c r="E2230">
-        <v>13103.40051658278</v>
+        <v>13103.40051658277</v>
       </c>
       <c r="F2230">
         <v>7363.599483417225</v>
@@ -56145,7 +56145,7 @@
         <v>13173.27126681975</v>
       </c>
       <c r="F2231">
-        <v>7333.728733180255</v>
+        <v>7333.728733180254</v>
       </c>
       <c r="G2231">
         <v>119</v>
@@ -56467,10 +56467,10 @@
         <v>243.8461538461538</v>
       </c>
       <c r="E2244">
-        <v>79430.39885154524</v>
+        <v>79430.39885154519</v>
       </c>
       <c r="F2244">
-        <v>63443.75499460861</v>
+        <v>63443.75499460865</v>
       </c>
       <c r="G2244">
         <v>35</v>
@@ -56520,7 +56520,7 @@
         <v>79827.16947953956</v>
       </c>
       <c r="F2246">
-        <v>62770.21513584507</v>
+        <v>62770.21513584506</v>
       </c>
       <c r="G2246">
         <v>42</v>
@@ -56539,10 +56539,10 @@
         <v>143118</v>
       </c>
       <c r="D2247">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E2247">
-        <v>80350.4571752846</v>
+        <v>80350.45717528459</v>
       </c>
       <c r="F2247">
         <v>62306.00436317694</v>
@@ -56564,7 +56564,7 @@
         <v>143118</v>
       </c>
       <c r="D2248">
-        <v>711.5384615384616</v>
+        <v>711.5384615384615</v>
       </c>
       <c r="E2248">
         <v>80694.77138295028</v>
@@ -56642,7 +56642,7 @@
         <v>153.8461538461538</v>
       </c>
       <c r="E2251">
-        <v>82637.495558802</v>
+        <v>82637.49555880199</v>
       </c>
       <c r="F2251">
         <v>60326.65828735185</v>
@@ -56714,7 +56714,7 @@
         <v>143118</v>
       </c>
       <c r="D2254">
-        <v>1421.384615384616</v>
+        <v>1421.384615384615</v>
       </c>
       <c r="E2254">
         <v>83880.09911479685</v>
@@ -56967,7 +56967,7 @@
         <v>1623.846153846154</v>
       </c>
       <c r="E2264">
-        <v>89592.51306846881</v>
+        <v>89592.5130684688</v>
       </c>
       <c r="F2264">
         <v>51901.64077768504</v>
@@ -56989,7 +56989,7 @@
         <v>143118</v>
       </c>
       <c r="D2265">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E2265">
         <v>91055.13924324796</v>
@@ -57020,7 +57020,7 @@
         <v>91065.42298337794</v>
       </c>
       <c r="F2266">
-        <v>50760.73086277591</v>
+        <v>50760.7308627759</v>
       </c>
       <c r="G2266">
         <v>112</v>
@@ -57295,7 +57295,7 @@
         <v>26087.92756497286</v>
       </c>
       <c r="F2277">
-        <v>18863.07243502715</v>
+        <v>18863.07243502714</v>
       </c>
       <c r="G2277">
         <v>0</v>
@@ -57517,7 +57517,7 @@
         <v>174.9230769230769</v>
       </c>
       <c r="E2286">
-        <v>27584.33604074751</v>
+        <v>27584.3360407475</v>
       </c>
       <c r="F2286">
         <v>17237.74088232942</v>
@@ -57817,7 +57817,7 @@
         <v>524</v>
       </c>
       <c r="E2298">
-        <v>30777.8014411979</v>
+        <v>30777.80144119789</v>
       </c>
       <c r="F2298">
         <v>13695.19855880211</v>
@@ -57870,7 +57870,7 @@
         <v>31538.12299022832</v>
       </c>
       <c r="F2300">
-        <v>12951.03085592553</v>
+        <v>12951.03085592552</v>
       </c>
       <c r="G2300">
         <v>112</v>
@@ -58217,10 +58217,10 @@
         <v>439.6923076923077</v>
       </c>
       <c r="E2314">
-        <v>73872.19841308786</v>
+        <v>73872.19841308784</v>
       </c>
       <c r="F2314">
-        <v>58284.10927921983</v>
+        <v>58284.10927921985</v>
       </c>
       <c r="G2314">
         <v>21</v>
@@ -58292,7 +58292,7 @@
         <v>384.6153846153846</v>
       </c>
       <c r="E2317">
-        <v>75360.20940372376</v>
+        <v>75360.20940372375</v>
       </c>
       <c r="F2317">
         <v>56851.17521166087</v>
@@ -58339,7 +58339,7 @@
         <v>132596</v>
       </c>
       <c r="D2319">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E2319">
         <v>76313.86374117748</v>
@@ -58417,7 +58417,7 @@
         <v>1138.307692307692</v>
       </c>
       <c r="E2322">
-        <v>77889.76726998951</v>
+        <v>77889.7672699895</v>
       </c>
       <c r="F2322">
         <v>53567.92503770281</v>
@@ -58439,7 +58439,7 @@
         <v>132596</v>
       </c>
       <c r="D2323">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E2323">
         <v>79052.57708850078</v>
@@ -58514,7 +58514,7 @@
         <v>132596</v>
       </c>
       <c r="D2326">
-        <v>1743.384615384616</v>
+        <v>1743.384615384615</v>
       </c>
       <c r="E2326">
         <v>81200.60003167027</v>
@@ -58564,7 +58564,7 @@
         <v>132596</v>
       </c>
       <c r="D2328">
-        <v>1953.384615384616</v>
+        <v>1953.384615384615</v>
       </c>
       <c r="E2328">
         <v>83389.31264460653</v>
@@ -58817,7 +58817,7 @@
         <v>1531.846153846154</v>
       </c>
       <c r="E2338">
-        <v>93686.59882015603</v>
+        <v>93686.59882015602</v>
       </c>
       <c r="F2338">
         <v>37377.55502599782</v>
@@ -59620,7 +59620,7 @@
         <v>59666.62436849759</v>
       </c>
       <c r="F2370">
-        <v>30638.37563150242</v>
+        <v>30638.37563150241</v>
       </c>
       <c r="G2370">
         <v>98</v>
@@ -59695,7 +59695,7 @@
         <v>60835.33492404809</v>
       </c>
       <c r="F2373">
-        <v>29581.81892210576</v>
+        <v>29581.81892210575</v>
       </c>
       <c r="G2373">
         <v>119</v>
@@ -59995,7 +59995,7 @@
         <v>84536.53819712986</v>
       </c>
       <c r="F2385">
-        <v>55451.76949517783</v>
+        <v>55451.76949517782</v>
       </c>
       <c r="G2385">
         <v>25</v>
@@ -60064,7 +60064,7 @@
         <v>140296</v>
       </c>
       <c r="D2388">
-        <v>785.5384615384616</v>
+        <v>785.5384615384615</v>
       </c>
       <c r="E2388">
         <v>85697.7798386689</v>
@@ -60214,7 +60214,7 @@
         <v>140296</v>
       </c>
       <c r="D2394">
-        <v>1669.384615384616</v>
+        <v>1669.384615384615</v>
       </c>
       <c r="E2394">
         <v>89589.99804391264</v>
@@ -60389,7 +60389,7 @@
         <v>140296</v>
       </c>
       <c r="D2401">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E2401">
         <v>98947.5061127229</v>
@@ -60645,7 +60645,7 @@
         <v>105213.0884378741</v>
       </c>
       <c r="F2411">
-        <v>34305.06540827979</v>
+        <v>34305.06540827978</v>
       </c>
       <c r="G2411">
         <v>119</v>
@@ -60892,7 +60892,7 @@
         <v>175.8461538461538</v>
       </c>
       <c r="E2421">
-        <v>42874.37029983317</v>
+        <v>42874.37029983316</v>
       </c>
       <c r="F2421">
         <v>23548.78354632068</v>
@@ -60992,7 +60992,7 @@
         <v>518.6153846153845</v>
       </c>
       <c r="E2425">
-        <v>43498.27600253168</v>
+        <v>43498.27600253167</v>
       </c>
       <c r="F2425">
         <v>22582.10861285294</v>
@@ -61067,7 +61067,7 @@
         <v>1153.846153846154</v>
       </c>
       <c r="E2428">
-        <v>44620.95831154601</v>
+        <v>44620.958311546</v>
       </c>
       <c r="F2428">
         <v>20824.19553460784</v>
@@ -61089,7 +61089,7 @@
         <v>66599</v>
       </c>
       <c r="D2429">
-        <v>773.5384615384616</v>
+        <v>773.5384615384615</v>
       </c>
       <c r="E2429">
         <v>45566.58917101545</v>
@@ -61192,7 +61192,7 @@
         <v>767.8461538461538</v>
       </c>
       <c r="E2433">
-        <v>47736.40811646421</v>
+        <v>47736.4081164642</v>
       </c>
       <c r="F2433">
         <v>18094.74572968964</v>
@@ -61342,7 +61342,7 @@
         <v>384.6153846153846</v>
       </c>
       <c r="E2439">
-        <v>50869.74196186281</v>
+        <v>50869.7419618628</v>
       </c>
       <c r="F2439">
         <v>15344.64265352181</v>
@@ -61542,7 +61542,7 @@
         <v>494.9230769230769</v>
       </c>
       <c r="E2447">
-        <v>54143.56501735516</v>
+        <v>54143.56501735515</v>
       </c>
       <c r="F2447">
         <v>11960.51190572177</v>
@@ -61892,7 +61892,7 @@
         <v>197.8461538461538</v>
       </c>
       <c r="E2461">
-        <v>39283.2243335595</v>
+        <v>39283.22433355949</v>
       </c>
       <c r="F2461">
         <v>23903.92951259435</v>
@@ -62020,7 +62020,7 @@
         <v>41041.17296946586</v>
       </c>
       <c r="F2466">
-        <v>22266.90395361107</v>
+        <v>22266.90395361106</v>
       </c>
       <c r="G2466">
         <v>53</v>
@@ -62095,7 +62095,7 @@
         <v>42194.38185962256</v>
       </c>
       <c r="F2469">
-        <v>20347.84890960821</v>
+        <v>20347.8489096082</v>
       </c>
       <c r="G2469">
         <v>70</v>
@@ -62270,7 +62270,7 @@
         <v>44899.38217302162</v>
       </c>
       <c r="F2476">
-        <v>18129.61782697839</v>
+        <v>18129.61782697838</v>
       </c>
       <c r="G2476">
         <v>112</v>
@@ -62467,7 +62467,7 @@
         <v>112</v>
       </c>
       <c r="E2484">
-        <v>46059.40534743868</v>
+        <v>46059.40534743867</v>
       </c>
       <c r="F2484">
         <v>17213.59465256133</v>
@@ -62592,7 +62592,7 @@
         <v>185.8461538461538</v>
       </c>
       <c r="E2489">
-        <v>21987.36186383341</v>
+        <v>21987.3618638334</v>
       </c>
       <c r="F2489">
         <v>12902.79198232044</v>
@@ -62742,7 +62742,7 @@
         <v>395.8461538461538</v>
       </c>
       <c r="E2495">
-        <v>23122.05214947746</v>
+        <v>23122.05214947745</v>
       </c>
       <c r="F2495">
         <v>11558.10169667639</v>
@@ -63217,10 +63217,10 @@
         <v>20</v>
       </c>
       <c r="E2514">
-        <v>37968.59795229476</v>
+        <v>37968.59795229475</v>
       </c>
       <c r="F2514">
-        <v>23599.40204770524</v>
+        <v>23599.40204770525</v>
       </c>
       <c r="G2514">
         <v>7</v>
@@ -63292,7 +63292,7 @@
         <v>187.8461538461538</v>
       </c>
       <c r="E2517">
-        <v>38470.5703475143</v>
+        <v>38470.57034751429</v>
       </c>
       <c r="F2517">
         <v>22929.58349863955</v>
@@ -63345,7 +63345,7 @@
         <v>38853.18909087888</v>
       </c>
       <c r="F2519">
-        <v>22579.88783219805</v>
+        <v>22579.88783219804</v>
       </c>
       <c r="G2519">
         <v>35</v>
@@ -63442,7 +63442,7 @@
         <v>368.9230769230769</v>
       </c>
       <c r="E2523">
-        <v>39587.77323632212</v>
+        <v>39587.77323632211</v>
       </c>
       <c r="F2523">
         <v>21631.30368675481</v>
@@ -63492,7 +63492,7 @@
         <v>718.7692307692308</v>
       </c>
       <c r="E2525">
-        <v>40007.97624561082</v>
+        <v>40007.97624561081</v>
       </c>
       <c r="F2525">
         <v>20861.25452361995</v>
@@ -63517,7 +63517,7 @@
         <v>153.8461538461538</v>
       </c>
       <c r="E2526">
-        <v>40762.12118754591</v>
+        <v>40762.1211875459</v>
       </c>
       <c r="F2526">
         <v>20672.03265860794</v>
@@ -63895,7 +63895,7 @@
         <v>45948.22475709666</v>
       </c>
       <c r="F2541">
-        <v>15168.85216598027</v>
+        <v>15168.85216598026</v>
       </c>
       <c r="G2541">
         <v>119</v>
@@ -64095,7 +64095,7 @@
         <v>25602.9938337422</v>
       </c>
       <c r="F2549">
-        <v>20150.00616625781</v>
+        <v>20150.0061662578</v>
       </c>
       <c r="G2549">
         <v>7</v>
@@ -64145,7 +64145,7 @@
         <v>25973.03897918875</v>
       </c>
       <c r="F2551">
-        <v>19695.03794388817</v>
+        <v>19695.03794388818</v>
       </c>
       <c r="G2551">
         <v>28</v>
@@ -64217,7 +64217,7 @@
         <v>224</v>
       </c>
       <c r="E2554">
-        <v>26454.85181645597</v>
+        <v>26454.85181645596</v>
       </c>
       <c r="F2554">
         <v>19102.14818354404</v>
@@ -64267,7 +64267,7 @@
         <v>335.8461538461538</v>
       </c>
       <c r="E2556">
-        <v>26885.66989754564</v>
+        <v>26885.66989754563</v>
       </c>
       <c r="F2556">
         <v>18559.48394860821</v>
@@ -64620,7 +64620,7 @@
         <v>30367.76430029253</v>
       </c>
       <c r="F2570">
-        <v>15195.23569970748</v>
+        <v>15195.23569970747</v>
       </c>
       <c r="G2570">
         <v>119</v>
@@ -64667,7 +64667,7 @@
         <v>252.9230769230769</v>
       </c>
       <c r="E2572">
-        <v>30638.65350723007</v>
+        <v>30638.65350723006</v>
       </c>
       <c r="F2572">
         <v>14889.42341584686</v>
@@ -64767,7 +64767,7 @@
         <v>153.8461538461538</v>
       </c>
       <c r="E2576">
-        <v>45773.06742017557</v>
+        <v>45773.06742017556</v>
       </c>
       <c r="F2576">
         <v>26044.08642597828</v>
@@ -64989,7 +64989,7 @@
         <v>71971</v>
       </c>
       <c r="D2585">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E2585">
         <v>47513.06090035105</v>
@@ -65292,7 +65292,7 @@
         <v>153.8461538461538</v>
       </c>
       <c r="E2597">
-        <v>52162.10459846744</v>
+        <v>52162.10459846743</v>
       </c>
       <c r="F2597">
         <v>19655.04924768641</v>
@@ -65545,7 +65545,7 @@
         <v>55285.12956051132</v>
       </c>
       <c r="F2607">
-        <v>16532.02428564253</v>
+        <v>16532.02428564252</v>
       </c>
       <c r="G2607">
         <v>137</v>
@@ -65817,7 +65817,7 @@
         <v>212.9230769230769</v>
       </c>
       <c r="E2618">
-        <v>7896.638053019648</v>
+        <v>7896.638053019647</v>
       </c>
       <c r="F2618">
         <v>6150.438870057276</v>
@@ -65895,7 +65895,7 @@
         <v>8367.919026825683</v>
       </c>
       <c r="F2621">
-        <v>5684.080973174318</v>
+        <v>5684.080973174317</v>
       </c>
       <c r="G2621">
         <v>77</v>
@@ -65917,10 +65917,10 @@
         <v>154</v>
       </c>
       <c r="E2622">
-        <v>8525.976618481484</v>
+        <v>8525.976618481483</v>
       </c>
       <c r="F2622">
-        <v>5580.023381518518</v>
+        <v>5580.023381518517</v>
       </c>
       <c r="G2622">
         <v>84</v>
@@ -66142,7 +66142,7 @@
         <v>2</v>
       </c>
       <c r="E2631">
-        <v>20369.18772923351</v>
+        <v>20369.1877292335</v>
       </c>
       <c r="F2631">
         <v>13403.8122707665</v>
@@ -66270,7 +66270,7 @@
         <v>20759.0053550972</v>
       </c>
       <c r="F2636">
-        <v>12793.07156797973</v>
+        <v>12793.07156797972</v>
       </c>
       <c r="G2636">
         <v>49</v>
@@ -66367,7 +66367,7 @@
         <v>312.9230769230769</v>
       </c>
       <c r="E2640">
-        <v>21571.39226463267</v>
+        <v>21571.39226463266</v>
       </c>
       <c r="F2640">
         <v>11890.68465844426</v>
@@ -66420,7 +66420,7 @@
         <v>22058.46275089967</v>
       </c>
       <c r="F2642">
-        <v>11413.61417217726</v>
+        <v>11413.61417217725</v>
       </c>
       <c r="G2642">
         <v>84</v>
@@ -66742,7 +66742,7 @@
         <v>2</v>
       </c>
       <c r="E2655">
-        <v>2179.559493057524</v>
+        <v>2179.559493057523</v>
       </c>
       <c r="F2655">
         <v>1913.440506942477</v>
@@ -66995,7 +66995,7 @@
         <v>2512.244427220317</v>
       </c>
       <c r="F2665">
-        <v>1548.755572779684</v>
+        <v>1548.755572779683</v>
       </c>
       <c r="G2665">
         <v>105</v>
@@ -67195,7 +67195,7 @@
         <v>133726.6465948787</v>
       </c>
       <c r="F2673">
-        <v>97147.43032819824</v>
+        <v>97147.43032819827</v>
       </c>
       <c r="G2673">
         <v>7</v>
@@ -67289,7 +67289,7 @@
         <v>231053</v>
       </c>
       <c r="D2677">
-        <v>719.5384615384616</v>
+        <v>719.5384615384615</v>
       </c>
       <c r="E2677">
         <v>136877.8449383812</v>
@@ -67542,10 +67542,10 @@
         <v>2350.461538461539</v>
       </c>
       <c r="E2687">
-        <v>145060.7152788256</v>
+        <v>145060.7152788255</v>
       </c>
       <c r="F2687">
-        <v>83641.82318271292</v>
+        <v>83641.82318271295</v>
       </c>
       <c r="G2687">
         <v>63</v>
@@ -67717,10 +67717,10 @@
         <v>153.8461538461538</v>
       </c>
       <c r="E2694">
-        <v>153459.1300398604</v>
+        <v>153459.1300398603</v>
       </c>
       <c r="F2694">
-        <v>77440.0238062935</v>
+        <v>77440.02380629349</v>
       </c>
       <c r="G2694">
         <v>88</v>
@@ -67945,7 +67945,7 @@
         <v>158137.2743527508</v>
       </c>
       <c r="F2703">
-        <v>71621.87949340305</v>
+        <v>71621.87949340304</v>
       </c>
       <c r="G2703">
         <v>119</v>
@@ -68045,7 +68045,7 @@
         <v>160449.4477975983</v>
       </c>
       <c r="F2707">
-        <v>70449.70604855559</v>
+        <v>70449.70604855558</v>
       </c>
       <c r="G2707">
         <v>137</v>
@@ -68070,7 +68070,7 @@
         <v>160264.8612144003</v>
       </c>
       <c r="F2708">
-        <v>70050.29263175358</v>
+        <v>70050.29263175357</v>
       </c>
       <c r="G2708">
         <v>140</v>
@@ -68170,7 +68170,7 @@
         <v>28448.03404300592</v>
       </c>
       <c r="F2712">
-        <v>16020.96595699409</v>
+        <v>16020.96595699408</v>
       </c>
       <c r="G2712">
         <v>21</v>
@@ -68442,7 +68442,7 @@
         <v>468</v>
       </c>
       <c r="E2723">
-        <v>30502.47271137692</v>
+        <v>30502.47271137691</v>
       </c>
       <c r="F2723">
         <v>13508.52728862309</v>
@@ -68542,7 +68542,7 @@
         <v>306</v>
       </c>
       <c r="E2727">
-        <v>31469.18509496861</v>
+        <v>31469.1850949686</v>
       </c>
       <c r="F2727">
         <v>12703.8149050314</v>
@@ -68670,7 +68670,7 @@
         <v>32120.49868896886</v>
       </c>
       <c r="F2732">
-        <v>12256.50131103115</v>
+        <v>12256.50131103114</v>
       </c>
       <c r="G2732">
         <v>147</v>
@@ -69164,7 +69164,7 @@
         <v>1069079</v>
       </c>
       <c r="D2752">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E2752">
         <v>773081.0166700096</v>
@@ -69214,7 +69214,7 @@
         <v>1069079</v>
       </c>
       <c r="D2754">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E2754">
         <v>779276.1579408685</v>
@@ -69364,7 +69364,7 @@
         <v>1069079</v>
       </c>
       <c r="D2760">
-        <v>461.5384615384616</v>
+        <v>461.5384615384615</v>
       </c>
       <c r="E2760">
         <v>789225.6915729627</v>
@@ -69620,7 +69620,7 @@
         <v>797237.7819749143</v>
       </c>
       <c r="F2770">
-        <v>269553.2180250858</v>
+        <v>269553.2180250857</v>
       </c>
       <c r="G2770">
         <v>129</v>
@@ -69645,7 +69645,7 @@
         <v>11212.64965714995</v>
       </c>
       <c r="F2771">
-        <v>8677.350342850054</v>
+        <v>8677.350342850053</v>
       </c>
       <c r="G2771">
         <v>0</v>
@@ -70020,7 +70020,7 @@
         <v>12745.1681577441</v>
       </c>
       <c r="F2786">
-        <v>7074.831842255901</v>
+        <v>7074.8318422559</v>
       </c>
       <c r="G2786">
         <v>105</v>
@@ -70345,7 +70345,7 @@
         <v>7505.535370872182</v>
       </c>
       <c r="F2799">
-        <v>4230.618475281664</v>
+        <v>4230.618475281663</v>
       </c>
       <c r="G2799">
         <v>42</v>
@@ -70442,7 +70442,7 @@
         <v>122</v>
       </c>
       <c r="E2803">
-        <v>7884.221180742075</v>
+        <v>7884.221180742074</v>
       </c>
       <c r="F2803">
         <v>3915.778819257926</v>
@@ -70595,7 +70595,7 @@
         <v>8317.702670714933</v>
       </c>
       <c r="F2809">
-        <v>3568.297329285068</v>
+        <v>3568.297329285067</v>
       </c>
       <c r="G2809">
         <v>112</v>
@@ -70767,7 +70767,7 @@
         <v>82.92307692307691</v>
       </c>
       <c r="E2816">
-        <v>35536.07273516114</v>
+        <v>35536.07273516113</v>
       </c>
       <c r="F2816">
         <v>19306.00418791579</v>
@@ -70995,7 +70995,7 @@
         <v>36657.0738193687</v>
       </c>
       <c r="F2825">
-        <v>17638.08002678515</v>
+        <v>17638.08002678514</v>
       </c>
       <c r="G2825">
         <v>70</v>
@@ -71067,7 +71067,7 @@
         <v>212</v>
       </c>
       <c r="E2828">
-        <v>37516.71655327187</v>
+        <v>37516.71655327186</v>
       </c>
       <c r="F2828">
         <v>17196.28344672814</v>
@@ -71417,10 +71417,10 @@
         <v>576.6153846153845</v>
       </c>
       <c r="E2842">
-        <v>69006.02903003201</v>
+        <v>69006.029030032</v>
       </c>
       <c r="F2842">
-        <v>54020.35558535261</v>
+        <v>54020.3555853526</v>
       </c>
       <c r="G2842">
         <v>35</v>
@@ -71667,7 +71667,7 @@
         <v>788.9230769230769</v>
       </c>
       <c r="E2852">
-        <v>73332.83285756903</v>
+        <v>73332.83285756902</v>
       </c>
       <c r="F2852">
         <v>49481.2440655079</v>
@@ -72245,7 +72245,7 @@
         <v>37712.53119737523</v>
       </c>
       <c r="F2875">
-        <v>30698.46880262478</v>
+        <v>30698.46880262477</v>
       </c>
       <c r="G2875">
         <v>7</v>
@@ -72642,7 +72642,7 @@
         <v>1177.538461538461</v>
       </c>
       <c r="E2891">
-        <v>42768.93344447106</v>
+        <v>42768.93344447105</v>
       </c>
       <c r="F2891">
         <v>24522.52809399048</v>
@@ -73067,10 +73067,10 @@
         <v>78</v>
       </c>
       <c r="E2908">
-        <v>50458.69407354428</v>
+        <v>50458.69407354425</v>
       </c>
       <c r="F2908">
-        <v>30898.30592645572</v>
+        <v>30898.30592645575</v>
       </c>
       <c r="G2908">
         <v>0</v>
@@ -73142,7 +73142,7 @@
         <v>153.8461538461538</v>
       </c>
       <c r="E2911">
-        <v>51424.7315890269</v>
+        <v>51424.73158902689</v>
       </c>
       <c r="F2911">
         <v>29856.42225712695</v>
@@ -73245,7 +73245,7 @@
         <v>52363.31400805049</v>
       </c>
       <c r="F2915">
-        <v>28839.83983810336</v>
+        <v>28839.83983810335</v>
       </c>
       <c r="G2915">
         <v>35</v>
@@ -73617,7 +73617,7 @@
         <v>1041.846153846154</v>
       </c>
       <c r="E2930">
-        <v>56938.06386404461</v>
+        <v>56938.0638640446</v>
       </c>
       <c r="F2930">
         <v>23455.08998210924</v>
@@ -73667,7 +73667,7 @@
         <v>857.8461538461538</v>
       </c>
       <c r="E2932">
-        <v>58162.56999350833</v>
+        <v>58162.56999350832</v>
       </c>
       <c r="F2932">
         <v>22414.58385264552</v>
@@ -73995,7 +73995,7 @@
         <v>60763.7441896379</v>
       </c>
       <c r="F2945">
-        <v>20493.25581036211</v>
+        <v>20493.2558103621</v>
       </c>
       <c r="G2945">
         <v>189</v>
@@ -74192,7 +74192,7 @@
         <v>616.6153846153845</v>
       </c>
       <c r="E2953">
-        <v>22087.02292222556</v>
+        <v>22087.02292222555</v>
       </c>
       <c r="F2953">
         <v>14898.36169315906</v>
@@ -74342,7 +74342,7 @@
         <v>76.92307692307691</v>
       </c>
       <c r="E2959">
-        <v>24502.68307103677</v>
+        <v>24502.68307103676</v>
       </c>
       <c r="F2959">
         <v>13022.39385204016</v>
@@ -74767,7 +74767,7 @@
         <v>244</v>
       </c>
       <c r="E2976">
-        <v>10977.76423274439</v>
+        <v>10977.76423274438</v>
       </c>
       <c r="F2976">
         <v>6538.235767255615</v>
@@ -74795,7 +74795,7 @@
         <v>11112.251037006</v>
       </c>
       <c r="F2977">
-        <v>6278.825886070918</v>
+        <v>6278.825886070917</v>
       </c>
       <c r="G2977">
         <v>77</v>
@@ -75045,7 +75045,7 @@
         <v>12346.51784336217</v>
       </c>
       <c r="F2987">
-        <v>5373.482156637831</v>
+        <v>5373.48215663783</v>
       </c>
       <c r="G2987">
         <v>147</v>
